--- a/Bevölkerung.xlsx
+++ b/Bevölkerung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scientificnet.sharepoint.com/sites/PowerBI182/Shared Documents/General/AutoUpdate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_7295BB77057D89FC52A0023F3788CDCE3266769F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9F00284-2DD8-459B-BF11-CC82B1A6B618}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_7295BB77057D89FC52A0023F3788CDCE3266769F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEB77860-CC99-45A0-86FE-629600F62BBA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="103">
   <si>
     <t>Land</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>Austria</t>
+  </si>
+  <si>
+    <t>France</t>
   </si>
 </sst>
 </file>
@@ -659,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,6 +932,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
@@ -1771,15 +1777,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010072A8C114F3E2C64F98846B259ADD46A2" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0484ff7efcccd01dbdec741c102477f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1fe3d27d-1ce9-4f21-a703-f1bcd893c200" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="27cddf62658af59425e3ba960ecaa399" ns2:_="">
     <xsd:import namespace="1fe3d27d-1ce9-4f21-a703-f1bcd893c200"/>
@@ -1949,6 +1946,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1956,14 +1962,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70AD3A2C-7D43-41E3-823F-B3CF72051BA2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{866E33EE-D6D3-45DE-BE48-C9A1BE6D5B60}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1981,6 +1979,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70AD3A2C-7D43-41E3-823F-B3CF72051BA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1A58D89-F8C2-43A6-A1B7-80B267D432DE}">
   <ds:schemaRefs>
